--- a/data.xlsx
+++ b/data.xlsx
@@ -43,7 +43,7 @@
     <t>NOMBRE D'AVIS</t>
   </si>
   <si>
-    <t>IDÉAL POUR</t>
+    <t>IDEAL POUR</t>
   </si>
   <si>
     <t>LIEN IMAGES</t>
